--- a/src/scripts/charts/gatheredData1280x720.xlsx
+++ b/src/scripts/charts/gatheredData1280x720.xlsx
@@ -14,7 +14,187 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="418">
+  <si>
+    <t>19408193,815</t>
+  </si>
+  <si>
+    <t>2,686</t>
+  </si>
+  <si>
+    <t>62,896</t>
+  </si>
+  <si>
+    <t>5174,093</t>
+  </si>
+  <si>
+    <t>388064,33</t>
+  </si>
+  <si>
+    <t>388067,717</t>
+  </si>
+  <si>
+    <t>17647108,607</t>
+  </si>
+  <si>
+    <t>2,422</t>
+  </si>
+  <si>
+    <t>60,797</t>
+  </si>
+  <si>
+    <t>4704,528</t>
+  </si>
+  <si>
+    <t>352846,301</t>
+  </si>
+  <si>
+    <t>352849,106</t>
+  </si>
+  <si>
+    <t>17712174,792</t>
+  </si>
+  <si>
+    <t>2,454</t>
+  </si>
+  <si>
+    <t>60,373</t>
+  </si>
+  <si>
+    <t>4721,887</t>
+  </si>
+  <si>
+    <t>354148,267</t>
+  </si>
+  <si>
+    <t>354151,104</t>
+  </si>
+  <si>
+    <t>18202238,076</t>
+  </si>
+  <si>
+    <t>2,452</t>
+  </si>
+  <si>
+    <t>60,639</t>
+  </si>
+  <si>
+    <t>4852,564</t>
+  </si>
+  <si>
+    <t>363949,163</t>
+  </si>
+  <si>
+    <t>363952,028</t>
+  </si>
+  <si>
+    <t>19024159,451</t>
+  </si>
+  <si>
+    <t>2,606</t>
+  </si>
+  <si>
+    <t>62,351</t>
+  </si>
+  <si>
+    <t>5071,704</t>
+  </si>
+  <si>
+    <t>380384,864</t>
+  </si>
+  <si>
+    <t>380387,994</t>
+  </si>
+  <si>
+    <t>18908377,435</t>
+  </si>
+  <si>
+    <t>2,727</t>
+  </si>
+  <si>
+    <t>65,74</t>
+  </si>
+  <si>
+    <t>5040,759</t>
+  </si>
+  <si>
+    <t>378063,929</t>
+  </si>
+  <si>
+    <t>378067,205</t>
+  </si>
+  <si>
+    <t>18755755,754</t>
+  </si>
+  <si>
+    <t>2,869</t>
+  </si>
+  <si>
+    <t>61,979</t>
+  </si>
+  <si>
+    <t>5000,132</t>
+  </si>
+  <si>
+    <t>375016,929</t>
+  </si>
+  <si>
+    <t>375020,332</t>
+  </si>
+  <si>
+    <t>18671385,968</t>
+  </si>
+  <si>
+    <t>2,558</t>
+  </si>
+  <si>
+    <t>62,496</t>
+  </si>
+  <si>
+    <t>4977,629</t>
+  </si>
+  <si>
+    <t>373329,158</t>
+  </si>
+  <si>
+    <t>373332,125</t>
+  </si>
+  <si>
+    <t>19527368,721</t>
+  </si>
+  <si>
+    <t>2,631</t>
+  </si>
+  <si>
+    <t>62,816</t>
+  </si>
+  <si>
+    <t>5205,869</t>
+  </si>
+  <si>
+    <t>390447,376</t>
+  </si>
+  <si>
+    <t>390450,548</t>
+  </si>
+  <si>
+    <t>19525337,861</t>
+  </si>
+  <si>
+    <t>2,608</t>
+  </si>
+  <si>
+    <t>66,311</t>
+  </si>
+  <si>
+    <t>5205,268</t>
+  </si>
+  <si>
+    <t>390402,297</t>
+  </si>
+  <si>
+    <t>390405,435</t>
+  </si>
   <si>
     <t>456155,465</t>
   </si>
@@ -1419,1210 +1599,1390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G87"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" t="s">
+        <v>305</v>
+      </c>
+      <c r="G10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" t="s">
+        <v>307</v>
+      </c>
+      <c r="G12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" t="s">
+        <v>310</v>
+      </c>
+      <c r="G15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" t="s">
+        <v>311</v>
+      </c>
+      <c r="G19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F20" t="s">
+        <v>312</v>
+      </c>
+      <c r="G20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" t="s">
+        <v>313</v>
+      </c>
+      <c r="G21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" t="s">
+        <v>314</v>
+      </c>
+      <c r="G22" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" t="s">
+        <v>315</v>
+      </c>
+      <c r="G23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" t="s">
+        <v>316</v>
+      </c>
+      <c r="G24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G28" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" t="s">
+        <v>258</v>
+      </c>
+      <c r="F29" t="s">
+        <v>318</v>
+      </c>
+      <c r="G29" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F30" t="s">
+        <v>319</v>
+      </c>
+      <c r="G30" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" t="s">
+        <v>320</v>
+      </c>
+      <c r="G31" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" t="s">
+        <v>321</v>
+      </c>
+      <c r="G32" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" t="s">
+        <v>262</v>
+      </c>
+      <c r="F33" t="s">
+        <v>322</v>
+      </c>
+      <c r="G33" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" t="s">
+        <v>323</v>
+      </c>
+      <c r="G37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" t="s">
+        <v>205</v>
+      </c>
+      <c r="E38" t="s">
+        <v>264</v>
+      </c>
+      <c r="F38" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" t="s">
+        <v>265</v>
+      </c>
+      <c r="F39" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" t="s">
+        <v>326</v>
+      </c>
+      <c r="G40" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" t="s">
+        <v>267</v>
+      </c>
+      <c r="F41" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" t="s">
+        <v>268</v>
+      </c>
+      <c r="F42" t="s">
+        <v>328</v>
+      </c>
+      <c r="G42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" t="s">
+        <v>269</v>
+      </c>
+      <c r="F46" t="s">
+        <v>329</v>
+      </c>
+      <c r="G46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" t="s">
+        <v>270</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" t="s">
+        <v>331</v>
+      </c>
+      <c r="G48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49" t="s">
+        <v>272</v>
+      </c>
+      <c r="F49" t="s">
+        <v>332</v>
+      </c>
+      <c r="G49" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" t="s">
+        <v>273</v>
+      </c>
+      <c r="F50" t="s">
+        <v>333</v>
+      </c>
+      <c r="G50" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" t="s">
+        <v>274</v>
+      </c>
+      <c r="F51" t="s">
+        <v>334</v>
+      </c>
+      <c r="G51" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" t="s">
+        <v>275</v>
+      </c>
+      <c r="F55" t="s">
+        <v>335</v>
+      </c>
+      <c r="G55" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" t="s">
+        <v>276</v>
+      </c>
+      <c r="F56" t="s">
+        <v>336</v>
+      </c>
+      <c r="G56" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" t="s">
+        <v>277</v>
+      </c>
+      <c r="F57" t="s">
+        <v>337</v>
+      </c>
+      <c r="G57" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58" t="s">
+        <v>278</v>
+      </c>
+      <c r="F58" t="s">
+        <v>338</v>
+      </c>
+      <c r="G58" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" t="s">
+        <v>279</v>
+      </c>
+      <c r="F59" t="s">
+        <v>339</v>
+      </c>
+      <c r="G59" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" t="s">
+        <v>280</v>
+      </c>
+      <c r="F60" t="s">
+        <v>340</v>
+      </c>
+      <c r="G60" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64" t="s">
+        <v>281</v>
+      </c>
+      <c r="F64" t="s">
+        <v>341</v>
+      </c>
+      <c r="G64" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" t="s">
+        <v>282</v>
+      </c>
+      <c r="F65" t="s">
+        <v>342</v>
+      </c>
+      <c r="G65" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" t="s">
+        <v>283</v>
+      </c>
+      <c r="F66" t="s">
+        <v>343</v>
+      </c>
+      <c r="G66" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" t="s">
+        <v>284</v>
+      </c>
+      <c r="F67" t="s">
+        <v>344</v>
+      </c>
+      <c r="G67" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" t="s">
+        <v>225</v>
+      </c>
+      <c r="E68" t="s">
+        <v>285</v>
+      </c>
+      <c r="F68" t="s">
+        <v>345</v>
+      </c>
+      <c r="G68" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" t="s">
+        <v>226</v>
+      </c>
+      <c r="E69" t="s">
+        <v>286</v>
+      </c>
+      <c r="F69" t="s">
+        <v>346</v>
+      </c>
+      <c r="G69" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" t="s">
+        <v>227</v>
+      </c>
+      <c r="E73" t="s">
+        <v>287</v>
+      </c>
+      <c r="F73" t="s">
+        <v>347</v>
+      </c>
+      <c r="G73" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" t="s">
+        <v>228</v>
+      </c>
+      <c r="E74" t="s">
+        <v>288</v>
+      </c>
+      <c r="F74" t="s">
+        <v>348</v>
+      </c>
+      <c r="G74" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" t="s">
+        <v>229</v>
+      </c>
+      <c r="E75" t="s">
+        <v>289</v>
+      </c>
+      <c r="F75" t="s">
+        <v>349</v>
+      </c>
+      <c r="G75" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" t="s">
+        <v>230</v>
+      </c>
+      <c r="E76" t="s">
+        <v>290</v>
+      </c>
+      <c r="F76" t="s">
+        <v>338</v>
+      </c>
+      <c r="G76" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" t="s">
+        <v>291</v>
+      </c>
+      <c r="F77" t="s">
+        <v>350</v>
+      </c>
+      <c r="G77" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78" t="s">
+        <v>232</v>
+      </c>
+      <c r="E78" t="s">
+        <v>292</v>
+      </c>
+      <c r="F78" t="s">
+        <v>351</v>
+      </c>
+      <c r="G78" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" t="s">
+        <v>174</v>
+      </c>
+      <c r="D82" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" t="s">
+        <v>293</v>
+      </c>
+      <c r="F82" t="s">
+        <v>352</v>
+      </c>
+      <c r="G82" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" t="s">
+        <v>175</v>
+      </c>
+      <c r="D83" t="s">
+        <v>234</v>
+      </c>
+      <c r="E83" t="s">
+        <v>294</v>
+      </c>
+      <c r="F83" t="s">
+        <v>353</v>
+      </c>
+      <c r="G83" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" t="s">
+        <v>235</v>
+      </c>
+      <c r="E84" t="s">
+        <v>295</v>
+      </c>
+      <c r="F84" t="s">
+        <v>354</v>
+      </c>
+      <c r="G84" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" t="s">
+        <v>236</v>
+      </c>
+      <c r="E85" t="s">
+        <v>296</v>
+      </c>
+      <c r="F85" t="s">
+        <v>355</v>
+      </c>
+      <c r="G85" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" t="s">
+        <v>237</v>
+      </c>
+      <c r="E86" t="s">
+        <v>297</v>
+      </c>
+      <c r="F86" t="s">
+        <v>356</v>
+      </c>
+      <c r="G86" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" t="s">
         <v>179</v>
       </c>
-      <c r="F1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="D87" t="s">
+        <v>238</v>
+      </c>
+      <c r="E87" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" t="s">
-        <v>244</v>
-      </c>
-      <c r="G6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F13" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" t="s">
-        <v>250</v>
-      </c>
-      <c r="G15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19" t="s">
-        <v>251</v>
-      </c>
-      <c r="G19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" t="s">
-        <v>192</v>
-      </c>
-      <c r="F20" t="s">
-        <v>252</v>
-      </c>
-      <c r="G20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F21" t="s">
-        <v>253</v>
-      </c>
-      <c r="G21" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" t="s">
-        <v>194</v>
-      </c>
-      <c r="F22" t="s">
-        <v>254</v>
-      </c>
-      <c r="G22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" t="s">
-        <v>255</v>
-      </c>
-      <c r="G23" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" t="s">
-        <v>256</v>
-      </c>
-      <c r="G24" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" t="s">
-        <v>257</v>
-      </c>
-      <c r="G28" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" t="s">
-        <v>258</v>
-      </c>
-      <c r="G29" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" t="s">
-        <v>199</v>
-      </c>
-      <c r="F30" t="s">
-        <v>259</v>
-      </c>
-      <c r="G30" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" t="s">
-        <v>200</v>
-      </c>
-      <c r="F31" t="s">
-        <v>260</v>
-      </c>
-      <c r="G31" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" t="s">
-        <v>201</v>
-      </c>
-      <c r="F32" t="s">
-        <v>261</v>
-      </c>
-      <c r="G32" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" t="s">
-        <v>202</v>
-      </c>
-      <c r="F33" t="s">
-        <v>262</v>
-      </c>
-      <c r="G33" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" t="s">
-        <v>263</v>
-      </c>
-      <c r="G37" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" t="s">
-        <v>204</v>
-      </c>
-      <c r="F38" t="s">
-        <v>264</v>
-      </c>
-      <c r="G38" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" t="s">
-        <v>205</v>
-      </c>
-      <c r="F39" t="s">
-        <v>265</v>
-      </c>
-      <c r="G39" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" t="s">
-        <v>206</v>
-      </c>
-      <c r="F40" t="s">
-        <v>266</v>
-      </c>
-      <c r="G40" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" t="s">
-        <v>207</v>
-      </c>
-      <c r="F41" t="s">
-        <v>267</v>
-      </c>
-      <c r="G41" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" t="s">
-        <v>208</v>
-      </c>
-      <c r="F42" t="s">
-        <v>268</v>
-      </c>
-      <c r="G42" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" t="s">
-        <v>150</v>
-      </c>
-      <c r="E46" t="s">
-        <v>209</v>
-      </c>
-      <c r="F46" t="s">
-        <v>269</v>
-      </c>
-      <c r="G46" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" t="s">
-        <v>210</v>
-      </c>
-      <c r="F47" t="s">
-        <v>270</v>
-      </c>
-      <c r="G47" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" t="s">
-        <v>211</v>
-      </c>
-      <c r="F48" t="s">
-        <v>271</v>
-      </c>
-      <c r="G48" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" t="s">
-        <v>153</v>
-      </c>
-      <c r="E49" t="s">
-        <v>212</v>
-      </c>
-      <c r="F49" t="s">
-        <v>272</v>
-      </c>
-      <c r="G49" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" t="s">
-        <v>213</v>
-      </c>
-      <c r="F50" t="s">
-        <v>273</v>
-      </c>
-      <c r="G50" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" t="s">
-        <v>155</v>
-      </c>
-      <c r="E51" t="s">
-        <v>214</v>
-      </c>
-      <c r="F51" t="s">
-        <v>274</v>
-      </c>
-      <c r="G51" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" t="s">
-        <v>156</v>
-      </c>
-      <c r="E55" t="s">
-        <v>215</v>
-      </c>
-      <c r="F55" t="s">
-        <v>275</v>
-      </c>
-      <c r="G55" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" t="s">
-        <v>157</v>
-      </c>
-      <c r="E56" t="s">
-        <v>216</v>
-      </c>
-      <c r="F56" t="s">
-        <v>276</v>
-      </c>
-      <c r="G56" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D57" t="s">
-        <v>158</v>
-      </c>
-      <c r="E57" t="s">
-        <v>217</v>
-      </c>
-      <c r="F57" t="s">
-        <v>277</v>
-      </c>
-      <c r="G57" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" t="s">
-        <v>159</v>
-      </c>
-      <c r="E58" t="s">
-        <v>218</v>
-      </c>
-      <c r="F58" t="s">
-        <v>278</v>
-      </c>
-      <c r="G58" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" t="s">
-        <v>160</v>
-      </c>
-      <c r="E59" t="s">
-        <v>219</v>
-      </c>
-      <c r="F59" t="s">
-        <v>279</v>
-      </c>
-      <c r="G59" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" t="s">
-        <v>161</v>
-      </c>
-      <c r="E60" t="s">
-        <v>220</v>
-      </c>
-      <c r="F60" t="s">
-        <v>280</v>
-      </c>
-      <c r="G60" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" t="s">
-        <v>162</v>
-      </c>
-      <c r="E64" t="s">
-        <v>221</v>
-      </c>
-      <c r="F64" t="s">
-        <v>281</v>
-      </c>
-      <c r="G64" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="B65" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" t="s">
-        <v>163</v>
-      </c>
-      <c r="E65" t="s">
-        <v>222</v>
-      </c>
-      <c r="F65" t="s">
-        <v>282</v>
-      </c>
-      <c r="G65" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="B66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" t="s">
-        <v>104</v>
-      </c>
-      <c r="D66" t="s">
-        <v>164</v>
-      </c>
-      <c r="E66" t="s">
-        <v>223</v>
-      </c>
-      <c r="F66" t="s">
-        <v>283</v>
-      </c>
-      <c r="G66" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" t="s">
-        <v>105</v>
-      </c>
-      <c r="D67" t="s">
-        <v>153</v>
-      </c>
-      <c r="E67" t="s">
-        <v>224</v>
-      </c>
-      <c r="F67" t="s">
-        <v>284</v>
-      </c>
-      <c r="G67" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7">
-      <c r="B68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" t="s">
-        <v>165</v>
-      </c>
-      <c r="E68" t="s">
-        <v>225</v>
-      </c>
-      <c r="F68" t="s">
-        <v>285</v>
-      </c>
-      <c r="G68" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7">
-      <c r="B69" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" t="s">
-        <v>107</v>
-      </c>
-      <c r="D69" t="s">
-        <v>166</v>
-      </c>
-      <c r="E69" t="s">
-        <v>226</v>
-      </c>
-      <c r="F69" t="s">
-        <v>286</v>
-      </c>
-      <c r="G69" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73" t="s">
-        <v>167</v>
-      </c>
-      <c r="E73" t="s">
-        <v>227</v>
-      </c>
-      <c r="F73" t="s">
-        <v>287</v>
-      </c>
-      <c r="G73" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74" t="s">
-        <v>49</v>
-      </c>
-      <c r="C74" t="s">
-        <v>109</v>
-      </c>
-      <c r="D74" t="s">
-        <v>168</v>
-      </c>
-      <c r="E74" t="s">
-        <v>228</v>
-      </c>
-      <c r="F74" t="s">
-        <v>288</v>
-      </c>
-      <c r="G74" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75" t="s">
-        <v>50</v>
-      </c>
-      <c r="C75" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75" t="s">
-        <v>169</v>
-      </c>
-      <c r="E75" t="s">
-        <v>229</v>
-      </c>
-      <c r="F75" t="s">
-        <v>289</v>
-      </c>
-      <c r="G75" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C76" t="s">
-        <v>111</v>
-      </c>
-      <c r="D76" t="s">
-        <v>170</v>
-      </c>
-      <c r="E76" t="s">
-        <v>230</v>
-      </c>
-      <c r="F76" t="s">
-        <v>278</v>
-      </c>
-      <c r="G76" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="B77" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" t="s">
-        <v>171</v>
-      </c>
-      <c r="E77" t="s">
-        <v>231</v>
-      </c>
-      <c r="F77" t="s">
-        <v>290</v>
-      </c>
-      <c r="G77" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="B78" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" t="s">
-        <v>113</v>
-      </c>
-      <c r="D78" t="s">
-        <v>172</v>
-      </c>
-      <c r="E78" t="s">
-        <v>232</v>
-      </c>
-      <c r="F78" t="s">
-        <v>291</v>
-      </c>
-      <c r="G78" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" t="s">
-        <v>114</v>
-      </c>
-      <c r="D82" t="s">
-        <v>173</v>
-      </c>
-      <c r="E82" t="s">
-        <v>233</v>
-      </c>
-      <c r="F82" t="s">
-        <v>292</v>
-      </c>
-      <c r="G82" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="B83" t="s">
-        <v>55</v>
-      </c>
-      <c r="C83" t="s">
-        <v>115</v>
-      </c>
-      <c r="D83" t="s">
-        <v>174</v>
-      </c>
-      <c r="E83" t="s">
-        <v>234</v>
-      </c>
-      <c r="F83" t="s">
-        <v>293</v>
-      </c>
-      <c r="G83" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84" t="s">
-        <v>116</v>
-      </c>
-      <c r="D84" t="s">
-        <v>175</v>
-      </c>
-      <c r="E84" t="s">
-        <v>235</v>
-      </c>
-      <c r="F84" t="s">
-        <v>294</v>
-      </c>
-      <c r="G84" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="B85" t="s">
-        <v>57</v>
-      </c>
-      <c r="C85" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" t="s">
-        <v>176</v>
-      </c>
-      <c r="E85" t="s">
-        <v>236</v>
-      </c>
-      <c r="F85" t="s">
-        <v>295</v>
-      </c>
-      <c r="G85" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="B86" t="s">
-        <v>58</v>
-      </c>
-      <c r="C86" t="s">
-        <v>118</v>
-      </c>
-      <c r="D86" t="s">
-        <v>177</v>
-      </c>
-      <c r="E86" t="s">
-        <v>237</v>
-      </c>
-      <c r="F86" t="s">
-        <v>296</v>
-      </c>
-      <c r="G86" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87" t="s">
-        <v>59</v>
-      </c>
-      <c r="C87" t="s">
-        <v>119</v>
-      </c>
-      <c r="D87" t="s">
-        <v>178</v>
-      </c>
-      <c r="E87" t="s">
-        <v>238</v>
-      </c>
       <c r="F87" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
       <c r="G87" t="s">
-        <v>357</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
